--- a/dojo-vs-js.xlsx
+++ b/dojo-vs-js.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pax/Classes/mathworks/mathworks-javascript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BF3937-B7EB-124C-AF82-6B62BFF2607F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6436CDA0-E2E7-3E43-BD28-43D8B118F463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22080" yWindow="1980" windowWidth="28920" windowHeight="23040" xr2:uid="{CBDDE1F5-C3F6-7E44-BFB9-AED103E22136}"/>
+    <workbookView xWindow="4200" yWindow="1440" windowWidth="45680" windowHeight="24580" xr2:uid="{CBDDE1F5-C3F6-7E44-BFB9-AED103E22136}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,8 +354,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42744E1B-7A8E-FD44-B802-16EA4309C7AD}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,10 +685,10 @@
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +701,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -716,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -729,7 +732,7 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -747,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -760,11 +763,11 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -777,11 +780,11 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -794,7 +797,7 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -840,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -853,7 +856,7 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -871,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -884,7 +887,7 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -930,7 +933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -943,11 +946,11 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -960,7 +963,7 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -978,7 +981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -991,7 +994,7 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1009,7 +1012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1022,7 +1025,7 @@
       <c r="D22" t="s">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1054,7 +1057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1067,7 +1070,7 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1099,7 +1102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1112,11 +1115,11 @@
       <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -1129,11 +1132,11 @@
       <c r="D29" t="s">
         <v>7</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -1146,7 +1149,7 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1192,7 +1195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1205,7 +1208,7 @@
       <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>84</v>
       </c>
     </row>
